--- a/SuppXLS/Scen_DemProj_DTCAR.xlsx
+++ b/SuppXLS/Scen_DemProj_DTCAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VEDA\Veda\Veda_models\Demo_models\DemoS_009\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Desktop\DEMO_009\Demo_009_TIMES\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32F2314D-FC79-42DF-883C-94CB570E18A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66E3C81-E280-4931-A263-FD5733ED8D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11505" yWindow="1995" windowWidth="17295" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_Data" sheetId="6" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="20">
   <si>
     <t>Year</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>BASE</t>
+  </si>
+  <si>
+    <t>DTPUB</t>
   </si>
 </sst>
 </file>
@@ -120,7 +123,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -158,6 +161,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -260,7 +264,7 @@
   <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
@@ -870,19 +874,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J4"/>
+  <dimension ref="B2:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
@@ -894,7 +898,7 @@
       <c r="H2" s="6"/>
       <c r="I2" s="6"/>
     </row>
-    <row r="3" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="8" t="s">
         <v>13</v>
       </c>
@@ -923,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>15</v>
       </c>
@@ -944,6 +948,29 @@
       </c>
       <c r="J4" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5">
+        <v>2005</v>
+      </c>
+      <c r="H5" s="12">
+        <v>3100.59695159375</v>
+      </c>
+      <c r="I5" s="12">
+        <v>3067.06485564375</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -955,29 +982,29 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="10.7109375" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -987,7 +1014,7 @@
       </c>
       <c r="L2" s="14"/>
     </row>
-    <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1016,7 +1043,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>9</v>
       </c>
@@ -1041,7 +1068,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
         <v>9</v>
       </c>
@@ -1062,7 +1089,7 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D6" t="s">
         <v>9</v>
       </c>
@@ -1083,7 +1110,7 @@
       <c r="K6" s="10"/>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>9</v>
       </c>
@@ -1103,6 +1130,66 @@
       </c>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>2006</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2000</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>2010</v>
+      </c>
+      <c r="F9" s="13">
+        <v>2500</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10">
+        <v>2015</v>
+      </c>
+      <c r="F10" s="13">
+        <v>3000</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11">
+        <v>2020</v>
+      </c>
+      <c r="F11" s="13">
+        <v>4000</v>
+      </c>
+      <c r="G11" s="13"/>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/SuppXLS/Scen_DemProj_DTCAR.xlsx
+++ b/SuppXLS/Scen_DemProj_DTCAR.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Desktop\DEMO_009\Demo_009_TIMES\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66E3C81-E280-4931-A263-FD5733ED8D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DEA4CA2-7627-4FEA-BE7B-74D446F49EED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BY_Data" sheetId="6" r:id="rId1"/>
@@ -876,7 +876,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -984,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1139,7 +1139,8 @@
         <v>2006</v>
       </c>
       <c r="F8" s="13">
-        <v>2000</v>
+        <f>BY_Data!$H$4*(1+$K$4)^(E8-2005)</f>
+        <v>3162.608890625625</v>
       </c>
       <c r="G8" s="13"/>
       <c r="H8" t="s">
@@ -1154,7 +1155,8 @@
         <v>2010</v>
       </c>
       <c r="F9" s="13">
-        <v>2500</v>
+        <f>BY_Data!$H$4*(1+$K$4)^(E9-2005)</f>
+        <v>3423.309572715099</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" t="s">
@@ -1169,7 +1171,8 @@
         <v>2015</v>
       </c>
       <c r="F10" s="13">
-        <v>3000</v>
+        <f>BY_Data!$H$4*(1+$K$4)^(E10-2005)</f>
+        <v>3779.6103826455351</v>
       </c>
       <c r="G10" s="13"/>
       <c r="H10" t="s">
@@ -1184,7 +1187,8 @@
         <v>2020</v>
       </c>
       <c r="F11" s="13">
-        <v>4000</v>
+        <f>BY_Data!$H$4*(1+$K$4)^(E11-2005)</f>
+        <v>4172.9952670543407</v>
       </c>
       <c r="G11" s="13"/>
       <c r="H11" t="s">
